--- a/biology/Histoire de la zoologie et de la botanique/Spencer_Fullerton_Baird/Spencer_Fullerton_Baird.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Spencer_Fullerton_Baird/Spencer_Fullerton_Baird.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spencer Fullerton Baird, né le 3 février 1823 à Reading en Pennsylvanie et mort le 19 août 1887 à Woods Hole dans le Massachusetts, est un ornithologue, ichtyologiste et conservateur de musée américain[2]. Il est le premier conservateur nommé à la Smithsonian Institution, où il servit également en tant que secrétaire assistant de 1850 à 1878 puis secrétaire de 1878 à 1887. Il a grandement accru les collections d'histoire naturelle de l'institut, qui passèrent de 6 000 spécimens en 1850 à plus de 2 millions à l'époque de sa mort[3]. Il a écrit plus de 1 000 publications pendant sa vie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spencer Fullerton Baird, né le 3 février 1823 à Reading en Pennsylvanie et mort le 19 août 1887 à Woods Hole dans le Massachusetts, est un ornithologue, ichtyologiste et conservateur de musée américain. Il est le premier conservateur nommé à la Smithsonian Institution, où il servit également en tant que secrétaire assistant de 1850 à 1878 puis secrétaire de 1878 à 1887. Il a grandement accru les collections d'histoire naturelle de l'institut, qui passèrent de 6 000 spécimens en 1850 à plus de 2 millions à l'époque de sa mort. Il a écrit plus de 1 000 publications pendant sa vie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sa famille, originaire d’Écosse, émigre en Amérique au XVIIe siècle. Son père est Samuel Baird, avocat, et sa mère, Lydia Biddle Baird. Spencer commence très tôt son éducation de naturaliste, apprenant l'observation ornithologique de son frère William[3] puis d'autres comme Jean-Jacques Audubon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sa famille, originaire d’Écosse, émigre en Amérique au XVIIe siècle. Son père est Samuel Baird, avocat, et sa mère, Lydia Biddle Baird. Spencer commence très tôt son éducation de naturaliste, apprenant l'observation ornithologique de son frère William puis d'autres comme Jean-Jacques Audubon.
 Après le décès du père, la famille s’installe à Carlisle (Pennsylvanie). À partir de 1837, il fait ses études au Dickinson College de Carlisle. En 1838 il organise une expédition ornithologique dans les montagnes de Pennsylvanie et rencontre John James Audubon qui, pour l'aider dans ses études ornithologiques, lui donne une partie de sa propre collection d'oiseaux et lui apprend à dessiner des illustrations scientifiques d'oiseaux.
 Après avoir été diplômé en 1840 à Carlisle d’un Bachelor of Arts, il étudie la médecine à New York jusqu’en 1842 puis choisit de retourner à Carlisle. Il obtient son Master of Arts en 1843. Il se lie d’amitié avec George Newbold Lawrence (1806-1895) en 1841, avec John Cassin (1813-1869) en 1843 et Thomas Mayo Brewer (1814-1880) en 1845. Baird devient professeur d'histoire naturelle au collège Dickinson en 1845 et obtient, l’année suivante, également la chaire de chimie et donnant des cours de physiologie et de mathématique. Baird se marie avec Mary Helen Churchill en 1846, union dont naîtra une fille, Lucy Hunter Baird.
 En 1848, il reçoit un titre de docteur en médecine honoraire par l’école de médecine de Philadelphie. De 1850 à 1878, il est secrétaire-assistant à la Smithsonian Institution de Washington et, à la mort de Joseph Henry, il en devient le secrétaire. En 1871, il fonde la U.S. Commission of Fish and Fisheries qu'il dirige jusqu'à sa mort. Il reçoit un Doctorat of Sciences honoraire par le Dickinson College en 1856, un Doctorat of Laws honoraire par l’université Columbia en 1875 et un autre Doctorat of Laws honoraire par l’université Harvard en 1886.
